--- a/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_Chemours Chambers Works.xlsx
+++ b/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_Chemours Chambers Works.xlsx
@@ -599,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
         <v>36</v>
       </c>
-      <c r="E9" t="n">
-        <v>44</v>
-      </c>
       <c r="F9" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -622,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="D10" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="E10" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.37</v>
+        <v>0.3</v>
       </c>
       <c r="G10" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8.3</v>
       </c>
       <c r="C9" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="D9" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F9" t="n">
-        <v>13</v>
+        <v>9.1</v>
       </c>
       <c r="G9" t="n">
-        <v>7.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="10">
@@ -866,22 +866,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.087</v>
+        <v>0.07</v>
       </c>
       <c r="D10" t="n">
-        <v>0.055</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.049</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.047</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05</v>
+        <v>0.011</v>
       </c>
     </row>
   </sheetData>
